--- a/docs/Результаты машины2_10тыс.xlsx
+++ b/docs/Результаты машины2_10тыс.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\labs\semen\lab5 area\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ucheba\engineering\lab5 area\calc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20B4ABF-0E1F-4718-8643-FD7861DF11CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCBAE3-99F1-4BBA-8D73-0C1CCBD482C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-90" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
   <si>
     <t>Тестирование</t>
   </si>
@@ -127,13 +127,19 @@
   </si>
   <si>
     <t>Вес массива, KB</t>
+  </si>
+  <si>
+    <t>1 до 2</t>
+  </si>
+  <si>
+    <t>Decimal (str)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +154,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -325,23 +337,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -355,6 +352,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -636,91 +651,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B20" sqref="A20:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F4">
@@ -736,14 +751,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5">
@@ -765,14 +780,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6">
@@ -794,17 +809,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7">
@@ -823,17 +838,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8">
@@ -852,17 +867,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9">
@@ -881,17 +896,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10">
@@ -910,17 +925,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <v>2</v>
       </c>
       <c r="E11">
@@ -939,20 +954,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="9">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
@@ -968,20 +983,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="s">
@@ -997,17 +1012,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14">
@@ -1026,17 +1041,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15">
@@ -1055,17 +1070,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="9">
         <v>2</v>
       </c>
       <c r="E16">
@@ -1084,39 +1099,348 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="16"/>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>67</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>53</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>53</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>49</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>49</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="20">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>79</v>
+      </c>
+      <c r="E33">
+        <v>353</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>49</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>49</v>
+      </c>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="G37" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/docs/Результаты машины2_10тыс.xlsx
+++ b/docs/Результаты машины2_10тыс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ucheba\engineering\lab5 area\calc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCBAE3-99F1-4BBA-8D73-0C1CCBD482C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BED87D-1D11-4E6A-ADEB-BE3D8184C49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="36">
   <si>
     <t>Тестирование</t>
   </si>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -367,10 +367,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -651,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:E37"/>
+      <selection activeCell="H20" sqref="G20:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1099,7 +1095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1124,17 +1120,22 @@
       <c r="H17" s="13"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>1</v>
       </c>
@@ -1146,9 +1147,19 @@
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="1" t="s">
@@ -1160,9 +1171,19 @@
       <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1178,9 +1199,23 @@
       <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -1196,9 +1231,23 @@
       <c r="E24">
         <v>31</v>
       </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1214,9 +1263,23 @@
       <c r="E25">
         <v>67</v>
       </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
@@ -1232,9 +1295,23 @@
       <c r="E26">
         <v>53</v>
       </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1250,9 +1327,23 @@
       <c r="E27">
         <v>53</v>
       </c>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1268,9 +1359,23 @@
       <c r="E28">
         <v>32</v>
       </c>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -1286,9 +1391,23 @@
       <c r="E29">
         <v>30</v>
       </c>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
@@ -1304,9 +1423,23 @@
       <c r="E30">
         <v>49</v>
       </c>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="9">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1322,9 +1455,23 @@
       <c r="E31">
         <v>49</v>
       </c>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -1340,16 +1487,30 @@
       <c r="E32">
         <v>27</v>
       </c>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="19" t="s">
+      <c r="G32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="9">
         <v>30</v>
       </c>
       <c r="D33">
@@ -1358,9 +1519,23 @@
       <c r="E33">
         <v>353</v>
       </c>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="9">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>64</v>
+      </c>
+      <c r="K33">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -1376,9 +1551,23 @@
       <c r="E34">
         <v>30</v>
       </c>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>23</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -1394,9 +1583,23 @@
       <c r="E35">
         <v>49</v>
       </c>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>23</v>
+      </c>
+      <c r="K35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1615,23 @@
       <c r="E36">
         <v>49</v>
       </c>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>23</v>
+      </c>
+      <c r="K36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
@@ -1426,19 +1643,33 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="G37" s="22"/>
+      <c r="G37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="12">
+        <v>1</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
